--- a/Laboratory Work - Лабораторные работы/Informatics - Информатика/lab5/Lab5 Без макроса.xlsx.xlsx
+++ b/Laboratory Work - Лабораторные работы/Informatics - Информатика/lab5/Lab5 Без макроса.xlsx.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossilman/Yandex.Disk.localized/ITMO/Laboratory Work - Лабораторные работы/Informatics - Информатика/lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71B7E91-5F94-8D4B-B833-E4F82BCE4EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98F1B10-8C27-9840-806A-6D84C92F9F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{1B66653F-FDBD-6E4B-B2B6-9C612BAA91D6}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,13 +229,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -330,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -344,31 +358,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1760,10 +1798,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E777CD4D-D9D2-1143-9ED9-0F4A618DB106}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="125" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1833,76 +1872,76 @@
       <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="16">
         <f>B86</f>
         <v>0</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="17">
         <f>B85</f>
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="17">
         <f>B84</f>
         <v>0</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="17">
         <f>B83</f>
         <v>0</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="17">
         <f>B82</f>
         <v>0</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="17">
         <f>B81</f>
         <v>0</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="17">
         <f>B80</f>
         <v>0</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <f>B79</f>
         <v>1</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <f>B78</f>
         <v>1</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="17">
         <f>B77</f>
         <v>0</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="17">
         <f>B76</f>
         <v>0</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <f>B75</f>
         <v>1</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <f>B74</f>
         <v>1</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="17">
         <f>B73</f>
         <v>0</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <f>B72</f>
         <v>1</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="13">
         <f>B71</f>
         <v>1</v>
       </c>
@@ -1956,7 +1995,7 @@
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="18">
         <f>D86</f>
         <v>0</v>
       </c>
@@ -1968,18 +2007,18 @@
         <f>D84</f>
         <v>1</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="19">
         <f>D83</f>
         <v>0</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="19">
         <f>D82</f>
         <v>0</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="19">
         <f>D81</f>
         <v>0</v>
       </c>
@@ -1991,14 +2030,14 @@
         <f>D79</f>
         <v>1</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="Q5" s="9">
         <f>D78</f>
         <v>1</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="19">
         <f>D77</f>
         <v>0</v>
       </c>
@@ -2010,14 +2049,14 @@
         <f>D75</f>
         <v>1</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="V5" s="9">
         <f>D74</f>
         <v>1</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="19">
         <f>D73</f>
         <v>0</v>
       </c>
@@ -2079,7 +2118,7 @@
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="18">
         <f>F86</f>
         <v>0</v>
       </c>
@@ -2091,14 +2130,14 @@
         <f>F84</f>
         <v>1</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="19">
         <f>F83</f>
         <v>0</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="19">
         <f>F82</f>
         <v>0</v>
       </c>
@@ -2106,7 +2145,7 @@
         <f>F81</f>
         <v>1</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="19">
         <f>F80</f>
         <v>0</v>
       </c>
@@ -2114,10 +2153,10 @@
         <f>F79</f>
         <v>1</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="19">
         <f>F78</f>
         <v>0</v>
       </c>
@@ -2125,7 +2164,7 @@
         <f>F77</f>
         <v>1</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="19">
         <f>F76</f>
         <v>0</v>
       </c>
@@ -2133,10 +2172,10 @@
         <f>F75</f>
         <v>1</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="19">
         <f>F74</f>
         <v>0</v>
       </c>
@@ -2148,7 +2187,7 @@
         <f>F72</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="20">
         <f>F71</f>
         <v>0</v>
       </c>
@@ -2202,7 +2241,7 @@
       <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f>H86</f>
         <v>1</v>
       </c>
@@ -2210,26 +2249,26 @@
         <f>H85</f>
         <v>1</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="19">
         <f>H84</f>
         <v>0</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="19">
         <f>H83</f>
         <v>0</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="9">
         <f>H82</f>
         <v>1</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="19">
         <f>H81</f>
         <v>0</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="19">
         <f>H80</f>
         <v>0</v>
       </c>
@@ -2237,18 +2276,18 @@
         <f>H79</f>
         <v>1</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="19">
         <f>H78</f>
         <v>0</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="19">
         <f>H77</f>
         <v>0</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="19">
         <f>H76</f>
         <v>0</v>
       </c>
@@ -2256,18 +2295,18 @@
         <f>H75</f>
         <v>1</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="19">
         <f>H74</f>
         <v>0</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="19">
         <f>H73</f>
         <v>0</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X7" s="19">
         <f>H72</f>
         <v>0</v>
       </c>
@@ -2325,7 +2364,7 @@
       <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="18">
         <f>J86</f>
         <v>0</v>
       </c>
@@ -2337,18 +2376,18 @@
         <f>J84</f>
         <v>1</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="19">
         <f>J83</f>
         <v>0</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="19">
         <f>J82</f>
         <v>0</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="19">
         <f>J81</f>
         <v>0</v>
       </c>
@@ -2356,18 +2395,18 @@
         <f>J80</f>
         <v>1</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="19">
         <f>J79</f>
         <v>0</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="19">
         <f>J78</f>
         <v>0</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="19">
         <f>J77</f>
         <v>0</v>
       </c>
@@ -2375,26 +2414,26 @@
         <f>J76</f>
         <v>1</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="19">
         <f>J75</f>
         <v>0</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="19">
         <f>J74</f>
         <v>0</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="19">
         <f>J73</f>
         <v>0</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="19">
         <f>J72</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="20">
         <f>J71</f>
         <v>0</v>
       </c>
@@ -2448,11 +2487,11 @@
       <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="18">
         <f>L86</f>
         <v>0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="19">
         <f>L85</f>
         <v>0</v>
       </c>
@@ -2464,10 +2503,10 @@
         <f>L83</f>
         <v>1</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="19">
         <f>L82</f>
         <v>0</v>
       </c>
@@ -2479,11 +2518,11 @@
         <f>L80</f>
         <v>1</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="19">
         <f>L79</f>
         <v>0</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="Q9" s="9">
@@ -2498,11 +2537,11 @@
         <f>L76</f>
         <v>1</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="19">
         <f>L75</f>
         <v>0</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="U9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="V9" s="9">
@@ -2574,7 +2613,7 @@
       <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f>N86</f>
         <v>1</v>
       </c>
@@ -2590,7 +2629,7 @@
         <f>N83</f>
         <v>1</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="L10" s="9">
@@ -2605,14 +2644,14 @@
         <f>N80</f>
         <v>1</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="19">
         <f>N79</f>
         <v>0</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="19">
         <f>N78</f>
         <v>0</v>
       </c>
@@ -2624,14 +2663,14 @@
         <f>N76</f>
         <v>1</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="19">
         <f>N75</f>
         <v>0</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="19">
         <f>N74</f>
         <v>0</v>
       </c>
@@ -2639,7 +2678,7 @@
         <f>N73</f>
         <v>1</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="19">
         <f>N72</f>
         <v>0</v>
       </c>
@@ -2700,15 +2739,15 @@
       <c r="F11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f>P86</f>
         <v>1</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="19">
         <f>P85</f>
         <v>0</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="19">
         <f>P84</f>
         <v>0</v>
       </c>
@@ -2716,7 +2755,7 @@
         <f>P83</f>
         <v>1</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>44</v>
       </c>
       <c r="L11" s="9">
@@ -2727,18 +2766,18 @@
         <f>P81</f>
         <v>1</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="19">
         <f>P80</f>
         <v>0</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="19">
         <f>P79</f>
         <v>0</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="19">
         <f>P78</f>
         <v>0</v>
       </c>
@@ -2746,18 +2785,18 @@
         <f>P77</f>
         <v>1</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="19">
         <f>P76</f>
         <v>0</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="19">
         <f>P75</f>
         <v>0</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="19">
         <f>P74</f>
         <v>0</v>
       </c>
@@ -2765,7 +2804,7 @@
         <f>P73</f>
         <v>1</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="19">
         <f>P72</f>
         <v>0</v>
       </c>
@@ -2791,15 +2830,15 @@
       <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <f>R86</f>
         <v>1</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="19">
         <f>R85</f>
         <v>0</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="19">
         <f>R84</f>
         <v>0</v>
       </c>
@@ -2807,14 +2846,14 @@
         <f>R83</f>
         <v>1</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="L12" s="9">
         <f>R82</f>
         <v>1</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="19">
         <f>R81</f>
         <v>0</v>
       </c>
@@ -2822,18 +2861,18 @@
         <f>R80</f>
         <v>1</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="19">
         <f>R79</f>
         <v>0</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="Q12" s="9">
         <f>R78</f>
         <v>1</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="19">
         <f>R77</f>
         <v>0</v>
       </c>
@@ -2841,18 +2880,18 @@
         <f>R76</f>
         <v>1</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="19">
         <f>R75</f>
         <v>0</v>
       </c>
-      <c r="U12" s="9" t="s">
+      <c r="U12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="V12" s="9">
         <f>R74</f>
         <v>1</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="19">
         <f>R73</f>
         <v>0</v>
       </c>
@@ -2860,7 +2899,7 @@
         <f>R72</f>
         <v>1</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Y12" s="20">
         <f>R71</f>
         <v>0</v>
       </c>
@@ -2948,11 +2987,11 @@
       <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="18">
         <f>T86</f>
         <v>0</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="19">
         <f>T85</f>
         <v>0</v>
       </c>
@@ -2964,10 +3003,10 @@
         <f>T83</f>
         <v>1</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="19">
         <f>T82</f>
         <v>0</v>
       </c>
@@ -2979,11 +3018,11 @@
         <f>T80</f>
         <v>1</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="19">
         <f>T79</f>
         <v>0</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="Q13" s="9">
@@ -2998,11 +3037,11 @@
         <f>T76</f>
         <v>1</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="19">
         <f>T75</f>
         <v>0</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="U13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="V13" s="9">
@@ -3105,15 +3144,15 @@
       <c r="F14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f>V86</f>
         <v>1</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="19">
         <f>V85</f>
         <v>0</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="19">
         <f>V84</f>
         <v>0</v>
       </c>
@@ -3121,7 +3160,7 @@
         <f>V83</f>
         <v>1</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="9">
@@ -3132,7 +3171,7 @@
         <f>V81</f>
         <v>1</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="19">
         <f>V80</f>
         <v>0</v>
       </c>
@@ -3140,7 +3179,7 @@
         <f>V79</f>
         <v>1</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="8" t="s">
         <v>44</v>
       </c>
       <c r="Q14" s="9">
@@ -3155,26 +3194,26 @@
         <f>V76</f>
         <v>1</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="19">
         <f>V75</f>
         <v>0</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="U14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="19">
         <f>V74</f>
         <v>0</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="19">
         <f>V73</f>
         <v>0</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="19">
         <f>V72</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="20">
         <f>V71</f>
         <v>0</v>
       </c>
@@ -3264,7 +3303,7 @@
       <c r="F15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="14">
         <f>X86</f>
         <v>1</v>
       </c>
@@ -3272,26 +3311,26 @@
         <f>X85</f>
         <v>1</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="21">
         <f>X84</f>
         <v>0</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="21">
         <f>X83</f>
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="11" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="12">
         <f>X82</f>
         <v>1</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="21">
         <f>X81</f>
         <v>0</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="21">
         <f>X80</f>
         <v>0</v>
       </c>
@@ -3299,18 +3338,18 @@
         <f>X79</f>
         <v>1</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="21">
         <f>X78</f>
         <v>0</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="21">
         <f>X77</f>
         <v>0</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="21">
         <f>X76</f>
         <v>0</v>
       </c>
@@ -3318,22 +3357,22 @@
         <f>X75</f>
         <v>1</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="U15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="21">
         <f>X74</f>
         <v>0</v>
       </c>
-      <c r="W15" s="12">
+      <c r="W15" s="21">
         <f>X73</f>
         <v>0</v>
       </c>
-      <c r="X15" s="12">
+      <c r="X15" s="21">
         <f>X72</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="Y15" s="15">
         <f>X71</f>
         <v>1</v>
       </c>
@@ -6953,14 +6992,6 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:Y15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
@@ -6972,6 +7003,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33FD90F-FB19-8D44-9AC9-15FD2DB57DBA}">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="Q16:Q27"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="140" workbookViewId="0">
